--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1380" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="1660" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="记录" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -619,6 +619,86 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>lk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金代码</t>
+    <rPh sb="0" eb="1">
+      <t>adqq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wad</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>qqp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证红利（000922）</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tjh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100032（场外）</t>
+    <rPh sb="7" eb="8">
+      <t>fnr</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购</t>
+    <rPh sb="0" eb="1">
+      <t>jhk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mqc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP手续费</t>
+    <rPh sb="3" eb="4">
+      <t>rtx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xjm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实付金额</t>
+    <rPh sb="0" eb="1">
+      <t>puwf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qqp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP份额</t>
+    <rPh sb="3" eb="4">
+      <t>wwp</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +790,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -990,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1084,10 +1166,10 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1108,18 +1190,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1127,16 +1218,139 @@
         <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.1014</v>
+      </c>
+      <c r="H2" s="2">
+        <f>1000*10/F2</f>
+        <v>1014.1987829614606</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1014</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="K2" s="2">
+        <v>871.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43207</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.94</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.1119</v>
+      </c>
+      <c r="H3" s="2">
+        <f>1000*1.01*10/F3</f>
+        <v>1129.7539149888144</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1130</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1034.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.127</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f>1000*POWER(1.01, 2)*10/F4</f>
+        <v>1113.6462882096071</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1114</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="K4" s="2">
+        <v>982.57</v>
       </c>
     </row>
   </sheetData>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1190,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1353,6 +1353,42 @@
         <v>982.57</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43270</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="H5" s="2">
+        <f>1000*POWER(1.01, 3)*10/F5</f>
+        <v>1184.2540229885058</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1184</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.06</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1094.83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -698,6 +698,13 @@
   <si>
     <t>APP份额</t>
     <rPh sb="3" eb="4">
+      <t>wwp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4231份额</t>
+    <rPh sb="4" eb="5">
       <t>wwp</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1207,10 +1214,11 @@
     <col min="8" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1244,8 +1252,11 @@
       <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43180</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>871.93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43207</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>1034.31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43236</v>
       </c>
@@ -1353,7 +1364,7 @@
         <v>982.57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43270</v>
       </c>
@@ -1387,6 +1398,81 @@
       </c>
       <c r="K5" s="2">
         <v>1094.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43298</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.1226</v>
+      </c>
+      <c r="H6" s="2">
+        <f>1000*POWER(1.01, 4)*10/F6</f>
+        <v>1275.250012254902</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1275</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1222.18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1192.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43334</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.006</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <f>1000*POWER(1.01, 5)*10/F7</f>
+        <v>1297.543271728395</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1297</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1287.3399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -709,6 +709,49 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4321份额说明：空白为与APP份额一致，0为当月未购买。</t>
+    <rPh sb="4" eb="5">
+      <t>wwp</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuj</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pwr</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>o</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wwp</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gcft</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>o</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ivu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>eee</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fii</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mqnu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -717,7 +760,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,6 +795,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -789,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,6 +850,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1197,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1526,50 @@
         <v>1287.3399999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43363</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <f>1000*POWER(1.01, 6)*10/F8</f>
+        <v>1321.9429023673724</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1321</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1296.27</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -15,7 +15,7 @@
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="记录" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -849,8 +849,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,10 +1224,10 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1565,8 +1565,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43361</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.71</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <f>1000*POWER(1.01, 7)*10/F9</f>
+        <v>1390.5776291919713</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1390</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1477.76</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
     </row>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -749,6 +749,28 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>mqnu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万宏源APP中卖出</t>
+    <rPh sb="0" eb="1">
+      <t>jhk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pdi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fnud</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bm</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,15 +1270,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
@@ -1266,10 +1288,11 @@
     <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43180</v>
       </c>
@@ -1343,7 +1366,7 @@
         <v>871.93</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43207</v>
       </c>
@@ -1379,7 +1402,7 @@
         <v>1034.31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43236</v>
       </c>
@@ -1415,7 +1438,7 @@
         <v>982.57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43270</v>
       </c>
@@ -1451,7 +1474,7 @@
         <v>1094.83</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43298</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>1192.29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43334</v>
       </c>
@@ -1526,7 +1549,7 @@
         <v>1287.3399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43363</v>
       </c>
@@ -1565,9 +1588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>43361</v>
+        <v>43391</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
@@ -1599,6 +1622,49 @@
       </c>
       <c r="K9" s="2">
         <v>1477.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43425</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.1265</v>
+      </c>
+      <c r="H10" s="2">
+        <f>1000*POWER(1.01, 8)*10/F10</f>
+        <v>1402.6641264612438</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1402</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1416.9</v>
+      </c>
+      <c r="L10" s="2">
+        <f>K10-K2</f>
+        <v>544.97000000000014</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1667,42 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43453</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.1298</v>
+      </c>
+      <c r="H11" s="2">
+        <f>1000*POWER(1.01, 9)*10/F11</f>
+        <v>1475.9585326374643</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1475</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1518.34</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>38</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -640,22 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中证红利（000922）</t>
-    <rPh sb="0" eb="1">
-      <t>kh</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ygh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xa</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tjh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100032（场外）</t>
     <rPh sb="7" eb="8">
       <t>fnr</t>
@@ -771,6 +755,44 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>bm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证红利（000922）</t>
+    <rPh sb="0" eb="1">
+      <t>pgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tjh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证红利（000922）</t>
+    <rPh sb="2" eb="3">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tjh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,7 +1301,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="2"/>
@@ -1318,16 +1340,16 @@
         <v>30</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1335,13 +1357,13 @@
         <v>43180</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="2">
         <v>1.159</v>
@@ -1371,13 +1393,13 @@
         <v>43207</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>1.0980000000000001</v>
@@ -1407,13 +1429,13 @@
         <v>43236</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>1.127</v>
@@ -1443,13 +1465,13 @@
         <v>43270</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>1.075</v>
@@ -1479,13 +1501,13 @@
         <v>43298</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>1.0369999999999999</v>
@@ -1518,13 +1540,13 @@
         <v>43334</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="2">
         <v>1.006</v>
@@ -1554,13 +1576,13 @@
         <v>43363</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>1.0129999999999999</v>
@@ -1593,13 +1615,13 @@
         <v>43391</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>0.93500000000000005</v>
@@ -1629,13 +1651,13 @@
         <v>43425</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>0.98799999999999999</v>
@@ -1664,7 +1686,7 @@
         <v>544.97000000000014</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1672,13 +1694,13 @@
         <v>43453</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>0.97</v>
@@ -1703,9 +1725,45 @@
         <v>1518.34</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43511</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.054</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f>1000*POWER(1.01, 10)*10/F12</f>
+        <v>1367.1065908554513</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1295.02</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -794,6 +794,10 @@
     <rPh sb="5" eb="6">
       <t>tjh</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100032（场外）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1299,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1765,45 @@
         <v>1295.02</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43542</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.153</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.1108</v>
+      </c>
+      <c r="H13" s="2">
+        <f>1000*POWER(1.01, 11)*10/F13</f>
+        <v>1235.513119230694</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1236</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1070.3800000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1804,6 +1804,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>43574</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.218</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.1019</v>
+      </c>
+      <c r="H14" s="2">
+        <f>1000*POWER(1.01, 12)*10/F14</f>
+        <v>1148.6493681263707</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1148</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="K14" s="2">
+        <v>941.12</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -849,7 +849,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1299,7 +1299,8 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1841,81 @@
         <v>941.12</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>43606</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.105</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.1169</v>
+      </c>
+      <c r="H15" s="2">
+        <f>1000*POWER(1.01, 13)*10/F15</f>
+        <v>1329.5482248052447</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1330</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1201.82</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.1263</v>
+      </c>
+      <c r="H16" s="2">
+        <f>1000*POWER(1.01, 14)*10/F16</f>
+        <v>1291.5440598175533</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1292</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1166.42</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1300,7 +1300,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,46 @@
         <v>1166.42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>43705</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.101</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.42</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.1188</v>
+      </c>
+      <c r="H17" s="2">
+        <f>1000*POWER(1.01, 15)*10/F17</f>
+        <v>1378.822987375295</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1378</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1249.72</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1300,7 +1300,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1955,6 +1955,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>43705</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.42</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.1187</v>
+      </c>
+      <c r="H18" s="2">
+        <f>1000*POWER(1.01, 16)*10/F18</f>
+        <v>1392.6112172490482</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1392</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1245.45</v>
+      </c>
+    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -101,10 +101,6 @@
     <rPh sb="4" eb="5">
       <t>jja</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利收益率要大于10%（即市盈率小于10【倒数】）;且盈利收益率要大于国债利率的两倍以上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,6 +794,10 @@
   </si>
   <si>
     <t>100032（场外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利收益率要大于10%（即市盈率小于10【倒数】）；且盈利收益率要大于国债利率的两倍以上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,26 +1208,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1238,51 +1238,51 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1300,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1321,40 +1321,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>43180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>1.159</v>
@@ -1398,13 +1398,13 @@
         <v>43207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="2">
         <v>1.0980000000000001</v>
@@ -1434,13 +1434,13 @@
         <v>43236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>1.127</v>
@@ -1470,13 +1470,13 @@
         <v>43270</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1.075</v>
@@ -1506,13 +1506,13 @@
         <v>43298</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>1.0369999999999999</v>
@@ -1545,13 +1545,13 @@
         <v>43334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>1.006</v>
@@ -1581,13 +1581,13 @@
         <v>43363</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>1.0129999999999999</v>
@@ -1620,13 +1620,13 @@
         <v>43391</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>0.93500000000000005</v>
@@ -1656,13 +1656,13 @@
         <v>43425</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="2">
         <v>0.98799999999999999</v>
@@ -1691,7 +1691,7 @@
         <v>544.97000000000014</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1699,13 +1699,13 @@
         <v>43453</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>0.97</v>
@@ -1735,13 +1735,13 @@
         <v>43511</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>1.054</v>
@@ -1771,13 +1771,13 @@
         <v>43542</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>1.153</v>
@@ -1810,13 +1810,13 @@
         <v>43574</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
         <v>1.218</v>
@@ -1846,13 +1846,13 @@
         <v>43606</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>1.105</v>
@@ -1885,13 +1885,13 @@
         <v>43664</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>1.1060000000000001</v>
@@ -1921,13 +1921,13 @@
         <v>43705</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2">
         <v>1.101</v>
@@ -1960,13 +1960,13 @@
         <v>43705</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2">
         <v>1.1160000000000001</v>
@@ -1991,9 +1991,48 @@
         <v>1245.45</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>43730</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <f>1000*POWER(1.01, 17)*10/F19</f>
+        <v>1377.0981760150419</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1234.24</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1299,8 +1299,8 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>43705</v>
+        <v>43731</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -2028,6 +2028,42 @@
       </c>
       <c r="L19" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>43798</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.089</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.1177</v>
+      </c>
+      <c r="H20" s="2">
+        <f>1000*POWER(1.01, 18)*10/F20</f>
+        <v>1408.8898417981923</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1408</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1290.99</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1660" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2066,6 +2066,45 @@
         <v>1290.99</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>43825</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.1169</v>
+      </c>
+      <c r="H21" s="2">
+        <f>1000*POWER(1.01, 19)*10/F21</f>
+        <v>1411.3422318265555</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1141</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="K21" s="2">
+        <v>999.38</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>36</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -798,6 +798,16 @@
   </si>
   <si>
     <t>盈利收益率要大于10%（即市盈率小于10【倒数】）；且盈利收益率要大于国债利率的两倍以上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红</t>
+    <rPh sb="0" eb="1">
+      <t>wv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xa</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1310,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2105,6 +2115,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>43892</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.15</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <f>1000*POWER(1.01, 20)*10/F22</f>
+        <v>1333.5410272655379</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>36</v>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -807,6 +807,36 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>xa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1753.76元</t>
+    <rPh sb="7" eb="8">
+      <t>fqb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2628.67元</t>
+    <rPh sb="7" eb="8">
+      <t>fqb</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1323,8 +1353,7 @@
     <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2128,6 +2157,9 @@
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="2">
+        <v>1.022</v>
+      </c>
       <c r="F22" s="2">
         <v>9.15</v>
       </c>
@@ -2141,14 +2173,92 @@
       <c r="I22" s="2">
         <v>1333</v>
       </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1302.3499999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>43894</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.1106</v>
+      </c>
+      <c r="H24" s="2">
+        <f>1000*POWER(1.01, 21)*10/F24</f>
+        <v>1363.2654207383259</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1363</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1431.08</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/me/money/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D78FA6-FFD7-0B4D-B8F4-B4DB94AAF376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="记录" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -379,7 +386,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第几个月</t>
     </r>
@@ -388,7 +396,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> * (10 / 当前PE)</t>
     </r>
@@ -446,7 +455,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第几个月</t>
     </r>
@@ -455,7 +465,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> * (当前PE / 18)</t>
     </r>
@@ -838,17 +849,25 @@
     <rPh sb="7" eb="8">
       <t>fqb</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983.25元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3062.5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,27 +888,31 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -948,6 +971,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,14 +1241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
@@ -1230,7 +1256,7 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1272,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1343,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1335,15 +1361,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
@@ -1358,7 +1384,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>43180</v>
       </c>
@@ -1432,7 +1458,7 @@
         <v>871.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>43207</v>
       </c>
@@ -1468,7 +1494,7 @@
         <v>1034.31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>43236</v>
       </c>
@@ -1504,7 +1530,7 @@
         <v>982.57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>43270</v>
       </c>
@@ -1540,7 +1566,7 @@
         <v>1094.83</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>43298</v>
       </c>
@@ -1579,7 +1605,7 @@
         <v>1192.29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>43334</v>
       </c>
@@ -1615,7 +1641,7 @@
         <v>1287.3399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>43363</v>
       </c>
@@ -1654,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>43391</v>
       </c>
@@ -1690,7 +1716,7 @@
         <v>1477.76</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>43425</v>
       </c>
@@ -1733,7 +1759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>43453</v>
       </c>
@@ -1769,7 +1795,7 @@
         <v>1518.34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="5">
         <v>43511</v>
       </c>
@@ -1805,7 +1831,7 @@
         <v>1295.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="5">
         <v>43542</v>
       </c>
@@ -1844,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="5">
         <v>43574</v>
       </c>
@@ -1880,7 +1906,7 @@
         <v>941.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>43606</v>
       </c>
@@ -1919,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="5">
         <v>43664</v>
       </c>
@@ -1955,7 +1981,7 @@
         <v>1166.42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="5">
         <v>43705</v>
       </c>
@@ -1994,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="5">
         <v>43731</v>
       </c>
@@ -2030,7 +2056,7 @@
         <v>1245.45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="5">
         <v>43760</v>
       </c>
@@ -2069,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="5">
         <v>43798</v>
       </c>
@@ -2105,7 +2131,7 @@
         <v>1290.99</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="5">
         <v>43825</v>
       </c>
@@ -2144,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="5">
         <v>43892</v>
       </c>
@@ -2180,7 +2206,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="5">
         <v>43894</v>
       </c>
@@ -2218,7 +2244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="5">
         <v>43907</v>
       </c>
@@ -2257,8 +2283,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="5">
+        <v>44267</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/me/money/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D78FA6-FFD7-0B4D-B8F4-B4DB94AAF376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EEECA-7E18-4A1A-B704-17811B8818F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="912" windowWidth="14136" windowHeight="10704" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="记录" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -859,6 +859,18 @@
     <t>3062.5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>50AH优选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +879,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -950,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,6 +974,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1248,15 +1261,15 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.83203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="64.796875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
+    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19">
+    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1356,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1362,29 +1375,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="10.796875" style="2"/>
     <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="8" max="9" width="10.796875" style="2"/>
     <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="19.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>43180</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>871.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43207</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>1034.31</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43236</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>982.57</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43270</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>1094.83</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43298</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>1192.29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43334</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>1287.3399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43363</v>
       </c>
@@ -1680,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43391</v>
       </c>
@@ -1716,7 +1729,7 @@
         <v>1477.76</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43425</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43453</v>
       </c>
@@ -1795,7 +1808,7 @@
         <v>1518.34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43511</v>
       </c>
@@ -1831,7 +1844,7 @@
         <v>1295.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43542</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43574</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>941.12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43606</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43664</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>1166.42</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43705</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43731</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>1245.45</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43760</v>
       </c>
@@ -2095,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43798</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>1290.99</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43825</v>
       </c>
@@ -2170,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43892</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43894</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43907</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>44267</v>
       </c>
@@ -2321,8 +2334,41 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>44721</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.399</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.1079</v>
+      </c>
+      <c r="H26" s="2">
+        <f>2000*POWER(1.01, 1)*10/F26</f>
+        <v>2179.0722761596548</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EEECA-7E18-4A1A-B704-17811B8818F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711AE61-5820-494A-8648-CE1B93BD9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="912" windowWidth="14136" windowHeight="10704" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="564" windowWidth="19620" windowHeight="11232" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -973,8 +973,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1351,10 +1351,10 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -1378,8 +1378,8 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2341,7 +2341,7 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2362,6 +2362,15 @@
       </c>
       <c r="I26" s="2">
         <v>2179</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1550.78</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711AE61-5820-494A-8648-CE1B93BD9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DE518-3A4C-4AC3-A015-BD6869E6092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="564" windowWidth="19620" windowHeight="11232" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="3252" windowWidth="15828" windowHeight="7836" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1377,9 +1377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2374,7 +2374,43 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5">
+        <v>44761</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.399</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H27" s="2">
+        <f>2000*POWER(1.01, 2)*10/F27</f>
+        <v>2177.3745997865531</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2177</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1553.78</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DE518-3A4C-4AC3-A015-BD6869E6092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162207D-4065-43A0-9CD4-8A2F7A85DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3252" windowWidth="15828" windowHeight="7836" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1788" windowWidth="19716" windowHeight="9156" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -974,7 +974,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1375,16 +1375,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
@@ -2335,47 +2335,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>44721</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.399</v>
-      </c>
-      <c r="F26" s="2">
-        <v>9.27</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.1079</v>
-      </c>
-      <c r="H26" s="2">
-        <f>2000*POWER(1.01, 1)*10/F26</f>
-        <v>2179.0722761596548</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2179</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1550.78</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
-        <v>44761</v>
+        <v>44721</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>51</v>
@@ -2390,35 +2354,114 @@
         <v>1.399</v>
       </c>
       <c r="F27" s="2">
-        <v>9.3699999999999992</v>
+        <v>9.27</v>
       </c>
       <c r="G27" s="6">
-        <v>0.10349999999999999</v>
+        <v>0.1079</v>
       </c>
       <c r="H27" s="2">
-        <f>2000*POWER(1.01, 2)*10/F27</f>
-        <v>2177.3745997865531</v>
+        <f>2000*POWER(1.01, 1)*10/F27</f>
+        <v>2179.0722761596548</v>
       </c>
       <c r="I27" s="2">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="J27" s="2">
         <v>3.26</v>
       </c>
       <c r="K27" s="2">
-        <v>1553.78</v>
+        <v>1550.78</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>44761</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.399</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <f>2000*POWER(1.01, 2)*10/F28</f>
+        <v>2177.3745997865531</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2177</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1553.78</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <f>2000*POWER(1.01, 2)*10/F29</f>
+        <v>2168.1190223166845</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2168</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1708.56</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162207D-4065-43A0-9CD4-8A2F7A85DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32EFC3-DFD8-49CB-A375-0F54D55D228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1788" windowWidth="19716" windowHeight="9156" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="记录" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -1375,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2454,8 +2448,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <f>2000*POWER(1.01, 3)*10/F30</f>
+        <v>2137.5539419087131</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2138</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1607.53</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/money/plan.xlsx
+++ b/money/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32EFC3-DFD8-49CB-A375-0F54D55D228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46734D0E-98B7-4C05-863B-A83FC5AA074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>怎么买</t>
     <rPh sb="0" eb="1">
@@ -530,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盈利收益率</t>
     <rPh sb="0" eb="1">
       <t>ect</t>
@@ -863,6 +859,10 @@
   </si>
   <si>
     <t>申购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE(市盈率)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,16 +1346,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1369,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -1408,25 +1408,25 @@
         <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1434,13 +1434,13 @@
         <v>43180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>1.159</v>
@@ -1470,13 +1470,13 @@
         <v>43207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>1.0980000000000001</v>
@@ -1506,13 +1506,13 @@
         <v>43236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="2">
         <v>1.127</v>
@@ -1542,13 +1542,13 @@
         <v>43270</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>1.075</v>
@@ -1578,13 +1578,13 @@
         <v>43298</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>1.0369999999999999</v>
@@ -1617,13 +1617,13 @@
         <v>43334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>1.006</v>
@@ -1653,13 +1653,13 @@
         <v>43363</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>1.0129999999999999</v>
@@ -1692,13 +1692,13 @@
         <v>43391</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>0.93500000000000005</v>
@@ -1728,13 +1728,13 @@
         <v>43425</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>0.98799999999999999</v>
@@ -1763,7 +1763,7 @@
         <v>544.97000000000014</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1771,13 +1771,13 @@
         <v>43453</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>0.97</v>
@@ -1807,13 +1807,13 @@
         <v>43511</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>1.054</v>
@@ -1843,13 +1843,13 @@
         <v>43542</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>1.153</v>
@@ -1882,13 +1882,13 @@
         <v>43574</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>1.218</v>
@@ -1918,13 +1918,13 @@
         <v>43606</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>1.105</v>
@@ -1957,13 +1957,13 @@
         <v>43664</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>1.1060000000000001</v>
@@ -1993,13 +1993,13 @@
         <v>43705</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2">
         <v>1.101</v>
@@ -2032,13 +2032,13 @@
         <v>43731</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>1.1160000000000001</v>
@@ -2068,13 +2068,13 @@
         <v>43760</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>1.1140000000000001</v>
@@ -2107,13 +2107,13 @@
         <v>43798</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2">
         <v>1.089</v>
@@ -2143,13 +2143,13 @@
         <v>43825</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>1.1399999999999999</v>
@@ -2182,13 +2182,13 @@
         <v>43892</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2">
         <v>1.022</v>
@@ -2218,37 +2218,37 @@
         <v>43894</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -2256,13 +2256,13 @@
         <v>43907</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
         <v>0.95099999999999996</v>
@@ -2295,37 +2295,37 @@
         <v>44267</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -2336,13 +2336,13 @@
         <v>44721</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E27" s="2">
         <v>1.399</v>
@@ -2375,13 +2375,13 @@
         <v>44761</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E28" s="2">
         <v>1.399</v>
@@ -2414,13 +2414,13 @@
         <v>44881</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E29" s="2">
         <v>1.2669999999999999</v>
@@ -2453,13 +2453,13 @@
         <v>45005</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E30" s="2">
         <v>1.3280000000000001</v>
@@ -2487,9 +2487,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>36</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.1047</v>
+      </c>
+      <c r="H31" s="2">
+        <f>2000*POWER(1.01, 4)*10/F31</f>
+        <v>2179.2754136125654</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2179</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1660.87</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
